--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_23.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_23.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_3</t>
+          <t>model_1_23_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997400586360532</v>
+        <v>0.9497974897601519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8259216795408649</v>
+        <v>0.7453749592819685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8158983264429724</v>
+        <v>0.7495563635764165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999932488241689</v>
+        <v>0.9603793714183808</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001082012867039642</v>
+        <v>0.1759854308820211</v>
       </c>
       <c r="G2" t="n">
-        <v>1.164062530467198</v>
+        <v>1.702678819721982</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6585210114851175</v>
+        <v>0.8958223659307617</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003130830845442853</v>
+        <v>0.1403340838148915</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06066220250430224</v>
+        <v>1.45752422380752</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03289396399097625</v>
+        <v>0.4195061750225151</v>
       </c>
       <c r="L2" t="n">
-        <v>1.016636247292595</v>
+        <v>0.9316391349925472</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03341201104193367</v>
+        <v>0.4261129779267944</v>
       </c>
       <c r="N2" t="n">
-        <v>143.65786441345</v>
+        <v>37.47470813289958</v>
       </c>
       <c r="O2" t="n">
-        <v>284.9930369566664</v>
+        <v>74.4392917211254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_4</t>
+          <t>model_1_23_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997400898529686</v>
+        <v>0.9499491503951317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258414109739158</v>
+        <v>0.7449098875494653</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8158510406319013</v>
+        <v>0.7389104049796226</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999315229571809</v>
+        <v>0.9538881223996057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001081882925795949</v>
+        <v>0.1754537829212466</v>
       </c>
       <c r="G3" t="n">
-        <v>1.16459928674399</v>
+        <v>1.70578875653869</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6586901500895304</v>
+        <v>0.9339023425433471</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003175595529227604</v>
+        <v>0.1633257302494643</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06326639956380253</v>
+        <v>1.544802325012261</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03289198877836287</v>
+        <v>0.4188720364517624</v>
       </c>
       <c r="L3" t="n">
-        <v>1.016634249410011</v>
+        <v>0.9318456516018815</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03341000472169611</v>
+        <v>0.4254688523074583</v>
       </c>
       <c r="N3" t="n">
-        <v>143.6581046121588</v>
+        <v>37.48075923187146</v>
       </c>
       <c r="O3" t="n">
-        <v>284.9932771553752</v>
+        <v>74.44534282009728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_2</t>
+          <t>model_1_23_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997130200057769</v>
+        <v>0.9499704082882124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8256444723341951</v>
+        <v>0.74481013628038</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8149359216143433</v>
+        <v>0.739818168554738</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999580349870287</v>
+        <v>0.9544952825127753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001194561887410512</v>
+        <v>0.175379263152104</v>
       </c>
       <c r="G4" t="n">
-        <v>1.165916216334621</v>
+        <v>1.706455793734376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6619634777536856</v>
+        <v>0.9306553248703152</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000194611072688448</v>
+        <v>0.1611752025758542</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06290525441317749</v>
+        <v>1.539035795830322</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03456243462793835</v>
+        <v>0.4187830740993527</v>
       </c>
       <c r="L4" t="n">
-        <v>1.018366719630279</v>
+        <v>0.9318745985201191</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03510675842356918</v>
+        <v>0.425378488886928</v>
       </c>
       <c r="N4" t="n">
-        <v>143.459951564469</v>
+        <v>37.48160886415208</v>
       </c>
       <c r="O4" t="n">
-        <v>284.7951241076855</v>
+        <v>74.4461924523779</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997050898129388</v>
+        <v>0.9498776125927221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8255485137801719</v>
+        <v>0.7448086963471252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8141729271992073</v>
+        <v>0.7475813293069279</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999463702389626</v>
+        <v>0.9592558954855124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001227571526810321</v>
+        <v>0.175704559444597</v>
       </c>
       <c r="G5" t="n">
-        <v>1.166557891627223</v>
+        <v>1.706465422574681</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6646926645356689</v>
+        <v>0.9028869489936557</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002487058762653587</v>
+        <v>0.1443133736790691</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06547868813175715</v>
+        <v>1.477383480217786</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03503671683834433</v>
+        <v>0.4191712769794669</v>
       </c>
       <c r="L5" t="n">
-        <v>1.018874251971916</v>
+        <v>0.9317482384241322</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03558851010468078</v>
+        <v>0.4257728055743434</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4054348593587</v>
+        <v>37.47790266791467</v>
       </c>
       <c r="O5" t="n">
-        <v>284.7406074025751</v>
+        <v>74.44248625614048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_5</t>
+          <t>model_1_23_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997499062071934</v>
+        <v>0.9499733741101837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8253669483788648</v>
+        <v>0.7446201464252102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8158430756462706</v>
+        <v>0.7409949384482331</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999349813068322</v>
+        <v>0.955236005315079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001041022089269748</v>
+        <v>0.1753688664318001</v>
       </c>
       <c r="G6" t="n">
-        <v>1.167772020301796</v>
+        <v>1.707726256770719</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6587186403812947</v>
+        <v>0.9264460871943228</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003015215944491116</v>
+        <v>0.1585516032150326</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06117182166217287</v>
+        <v>1.531262213256222</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03226487392304125</v>
+        <v>0.4187706609014056</v>
       </c>
       <c r="L6" t="n">
-        <v>1.016006002739623</v>
+        <v>0.9318786370862076</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03277301343428805</v>
+        <v>0.4253658801935219</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7351045405903</v>
+        <v>37.48172743037588</v>
       </c>
       <c r="O6" t="n">
-        <v>285.0702770838067</v>
+        <v>74.44631101860169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_0</t>
+          <t>model_1_23_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996802154696827</v>
+        <v>0.949978232045759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8252804950448753</v>
+        <v>0.7445984441567006</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8145684831158445</v>
+        <v>0.7414649251061463</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999779775561145</v>
+        <v>0.9555446768224869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001331111644679884</v>
+        <v>0.1753518368872344</v>
       </c>
       <c r="G7" t="n">
-        <v>1.168350134144264</v>
+        <v>1.707871379940173</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6632777839575075</v>
+        <v>0.9247649721703594</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001021282045284795</v>
+        <v>0.15745830573989</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06178166019574654</v>
+        <v>1.527898157988378</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03648440275898571</v>
+        <v>0.4187503276264203</v>
       </c>
       <c r="L7" t="n">
-        <v>1.020466209940309</v>
+        <v>0.9318852521474166</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03705899563141727</v>
+        <v>0.4253452266897814</v>
       </c>
       <c r="N7" t="n">
-        <v>143.243481725573</v>
+        <v>37.48192165380686</v>
       </c>
       <c r="O7" t="n">
-        <v>284.5786542687894</v>
+        <v>74.44650524203269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_6</t>
+          <t>model_1_23_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999734219980561</v>
+        <v>0.9499783329393846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8244915234445551</v>
+        <v>0.7445397227398503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8170329302148783</v>
+        <v>0.7427669855985454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998621192932712</v>
+        <v>0.956379756036295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001106316426399542</v>
+        <v>0.1753514832035623</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173625990868486</v>
+        <v>1.708264050325038</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6544625995811169</v>
+        <v>0.9201075772868529</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006394162741683282</v>
+        <v>0.1545005011674256</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06279120436025346</v>
+        <v>1.518170856292521</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03326133530692269</v>
+        <v>0.4187499053176756</v>
       </c>
       <c r="L8" t="n">
-        <v>1.017009921244096</v>
+        <v>0.9318853895344812</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03378516808886969</v>
+        <v>0.425344797730096</v>
       </c>
       <c r="N8" t="n">
-        <v>143.613438633964</v>
+        <v>37.48192568779972</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9486111771804</v>
+        <v>74.44650927602554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_8</t>
+          <t>model_1_23_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997576682599678</v>
+        <v>0.949977030236039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8244011703593291</v>
+        <v>0.7445200299254356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8167053046200763</v>
+        <v>0.7426244212271065</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998122617334548</v>
+        <v>0.9562804403237185</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001008712337373677</v>
+        <v>0.1753560498439256</v>
       </c>
       <c r="G9" t="n">
-        <v>1.174230182365429</v>
+        <v>1.708395736265706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6556344973369002</v>
+        <v>0.9206175217771324</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008706287178323843</v>
+        <v>0.1548522719502676</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06313044260650701</v>
+        <v>1.519399812771811</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0317602320107029</v>
+        <v>0.4187553579883195</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01550923136206</v>
+        <v>0.9318836156405637</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03226042391628721</v>
+        <v>0.4253503362748519</v>
       </c>
       <c r="N9" t="n">
-        <v>143.798161350028</v>
+        <v>37.48187360291493</v>
       </c>
       <c r="O9" t="n">
-        <v>285.1333338932444</v>
+        <v>74.44645719114075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_7</t>
+          <t>model_1_23_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997535589162618</v>
+        <v>0.949943920001217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8243110173044346</v>
+        <v>0.744337759981766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8167764893173955</v>
+        <v>0.7440913546271293</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998119584930177</v>
+        <v>0.9571479266358002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001025817590256651</v>
+        <v>0.1754721181224621</v>
       </c>
       <c r="G10" t="n">
-        <v>1.174833036258626</v>
+        <v>1.709614576218301</v>
       </c>
       <c r="H10" t="n">
-        <v>0.655379873802115</v>
+        <v>0.9153703860629365</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008720349832560319</v>
+        <v>0.1517796832209606</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06283521653816691</v>
+        <v>1.50912542890721</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03202838725656744</v>
+        <v>0.4188939222792115</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015772229359243</v>
+        <v>0.9318385293633593</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03253280233921721</v>
+        <v>0.425491082814812</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7645306706276</v>
+        <v>37.4805502395893</v>
       </c>
       <c r="O10" t="n">
-        <v>285.099703213844</v>
+        <v>74.44513382781511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_9</t>
+          <t>model_1_23_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997549499331143</v>
+        <v>0.9498516923897622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8241191697136389</v>
+        <v>0.743957932677612</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8161094719039178</v>
+        <v>0.7459912733118976</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997203939445727</v>
+        <v>0.9581738032809537</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001020027445472416</v>
+        <v>0.1757954229903572</v>
       </c>
       <c r="G11" t="n">
-        <v>1.176115921981654</v>
+        <v>1.712154483150122</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6577657564142332</v>
+        <v>0.9085744870911351</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001296661922018353</v>
+        <v>0.1481460846573199</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06355723097662461</v>
+        <v>1.495021091522887</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03193786851798999</v>
+        <v>0.4192796477177937</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015683204280684</v>
+        <v>0.9317129428286124</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0324408580209927</v>
+        <v>0.4258828830434679</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7758514894441</v>
+        <v>37.47686865878437</v>
       </c>
       <c r="O11" t="n">
-        <v>285.1110240326605</v>
+        <v>74.44145224701019</v>
       </c>
     </row>
   </sheetData>
